--- a/makaia_framework/data/DeleteCustomer.xlsx
+++ b/makaia_framework/data/DeleteCustomer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\pointOfSale-workspace\makaia_framework-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vchandrakasa\git\Session6_repo\makaia_framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08F96DE-913D-4ED8-9C70-F5BC969AF7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,11 +360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
